--- a/Lancet Covid-19 Commission Data/Website Material/Feb 2021 Vaccination Table/Final Tables/Feb 1 2021 Global Vaccination Data.xlsx
+++ b/Lancet Covid-19 Commission Data/Website Material/Feb 2021 Vaccination Table/Final Tables/Feb 1 2021 Global Vaccination Data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isminiethridge/Dropbox/JDS_Data/Lancet Covid-19 Commission Data/Website Material/Feb 2021 Vaccination Table/Final Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCB4927-F594-CF4E-8467-59326812A1A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474086F1-E80F-1943-887C-3786AEA0F5EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31560" yWindow="1100" windowWidth="27240" windowHeight="15780" xr2:uid="{83B1D62D-10D5-BB44-97D6-E3B27F85D63E}"/>
+    <workbookView xWindow="34980" yWindow="1640" windowWidth="27240" windowHeight="15780" xr2:uid="{83B1D62D-10D5-BB44-97D6-E3B27F85D63E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -802,7 +802,7 @@
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -876,25 +876,25 @@
         <v>32222402</v>
       </c>
       <c r="E2" s="1">
-        <f>D2/$D$60</f>
+        <f t="shared" ref="E2:E33" si="0">D2/$D$60</f>
         <v>0.31806299898336005</v>
       </c>
       <c r="F2">
         <v>26023153</v>
       </c>
       <c r="G2" s="2">
-        <f>F2/$F$60</f>
+        <f t="shared" ref="G2:G33" si="1">F2/$F$60</f>
         <v>0.46034052509680484</v>
       </c>
       <c r="H2" s="1">
-        <f>F2/$C2</f>
+        <f t="shared" ref="H2:H33" si="2">F2/$C2</f>
         <v>7.8619168867250774E-2</v>
       </c>
       <c r="I2" s="4">
         <v>5927847</v>
       </c>
       <c r="J2" s="1">
-        <f>I2/$C2</f>
+        <f t="shared" ref="J2:J33" si="3">I2/$C2</f>
         <v>1.7908760107286998E-2</v>
       </c>
       <c r="K2" s="3">
@@ -921,25 +921,25 @@
         <v>9790576</v>
       </c>
       <c r="E3" s="1">
-        <f>D3/$D$60</f>
+        <f t="shared" si="0"/>
         <v>9.6641459700444104E-2</v>
       </c>
       <c r="F3">
         <v>9296367</v>
       </c>
       <c r="G3" s="2">
-        <f>F3/$F$60</f>
+        <f t="shared" si="1"/>
         <v>0.16444949873186421</v>
       </c>
       <c r="H3" s="1">
-        <f>F3/$C3</f>
+        <f t="shared" si="2"/>
         <v>0.1369408486615297</v>
       </c>
       <c r="I3" s="4">
         <v>494209</v>
       </c>
       <c r="J3" s="1">
-        <f>I3/$C3</f>
+        <f t="shared" si="3"/>
         <v>7.2799836620225872E-3</v>
       </c>
       <c r="K3" s="3">
@@ -966,25 +966,25 @@
         <v>3440777</v>
       </c>
       <c r="E4" s="1">
-        <f>D4/$D$60</f>
+        <f t="shared" si="0"/>
         <v>3.3963447276617327E-2</v>
       </c>
       <c r="F4">
         <v>3190777</v>
       </c>
       <c r="G4" s="2">
-        <f>F4/$F$60</f>
+        <f t="shared" si="1"/>
         <v>5.6443735301668005E-2</v>
       </c>
       <c r="H4" s="1">
-        <f>F4/$C4</f>
+        <f t="shared" si="2"/>
         <v>0.32261354444714069</v>
       </c>
       <c r="I4" s="4">
         <v>250000</v>
       </c>
       <c r="J4" s="1">
-        <f>I4/$C4</f>
+        <f t="shared" si="3"/>
         <v>2.5277036318045783E-2</v>
       </c>
       <c r="K4" s="3">
@@ -1011,25 +1011,25 @@
         <v>4989953</v>
       </c>
       <c r="E5" s="1">
-        <f>D5/$D$60</f>
+        <f t="shared" si="0"/>
         <v>4.9255155340871687E-2</v>
       </c>
       <c r="F5">
         <v>3165415</v>
       </c>
       <c r="G5" s="2">
-        <f>F5/$F$60</f>
+        <f t="shared" si="1"/>
         <v>5.5995090343176422E-2</v>
       </c>
       <c r="H5" s="1">
-        <f>F5/$C5</f>
+        <f t="shared" si="2"/>
         <v>0.36570966505733149</v>
       </c>
       <c r="I5" s="4">
         <v>1824538</v>
       </c>
       <c r="J5" s="1">
-        <f>I5/$C5</f>
+        <f t="shared" si="3"/>
         <v>0.21079421840876267</v>
       </c>
       <c r="K5" s="3">
@@ -1056,22 +1056,22 @@
         <v>2124307</v>
       </c>
       <c r="E6" s="1">
-        <f>D6/$D$60</f>
+        <f t="shared" si="0"/>
         <v>2.0968748859298097E-2</v>
       </c>
       <c r="F6">
         <v>2107624</v>
       </c>
       <c r="G6" s="2">
-        <f>F6/$F$60</f>
+        <f t="shared" si="1"/>
         <v>3.728313547811167E-2</v>
       </c>
       <c r="H6" s="1">
-        <f>F6/$C6</f>
+        <f t="shared" si="2"/>
         <v>9.915458506002903E-3</v>
       </c>
       <c r="J6" s="1">
-        <f>I6/$C6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K6" s="3">
@@ -1095,25 +1095,25 @@
         <v>2467918</v>
       </c>
       <c r="E7" s="1">
-        <f>D7/$D$60</f>
+        <f t="shared" si="0"/>
         <v>2.4360486853991083E-2</v>
       </c>
       <c r="F7">
         <v>1935356</v>
       </c>
       <c r="G7" s="2">
-        <f>F7/$F$60</f>
+        <f t="shared" si="1"/>
         <v>3.4235774477030197E-2</v>
       </c>
       <c r="H7" s="1">
-        <f>F7/$C7</f>
+        <f t="shared" si="2"/>
         <v>2.3099365874929858E-2</v>
       </c>
       <c r="I7" s="4">
         <v>532562</v>
       </c>
       <c r="J7" s="1">
-        <f>I7/$C7</f>
+        <f t="shared" si="3"/>
         <v>6.3563729303985385E-3</v>
       </c>
       <c r="K7" s="3">
@@ -1140,25 +1140,25 @@
         <v>1533630</v>
       </c>
       <c r="E8" s="1">
-        <f>D8/$D$60</f>
+        <f t="shared" si="0"/>
         <v>1.513825558786246E-2</v>
       </c>
       <c r="F8">
         <v>1486493</v>
       </c>
       <c r="G8" s="2">
-        <f>F8/$F$60</f>
+        <f t="shared" si="1"/>
         <v>2.6295544132285766E-2</v>
       </c>
       <c r="H8" s="1">
-        <f>F8/$C8</f>
+        <f t="shared" si="2"/>
         <v>2.2773295850849883E-2</v>
       </c>
       <c r="I8" s="4">
         <v>47137</v>
       </c>
       <c r="J8" s="1">
-        <f>I8/$C8</f>
+        <f t="shared" si="3"/>
         <v>7.221459142569194E-4</v>
       </c>
       <c r="K8" s="3">
@@ -1185,25 +1185,25 @@
         <v>2029931</v>
       </c>
       <c r="E9" s="1">
-        <f>D9/$D$60</f>
+        <f t="shared" si="0"/>
         <v>2.0037176048802664E-2</v>
       </c>
       <c r="F9">
         <v>1346453</v>
       </c>
       <c r="G9" s="2">
-        <f>F9/$F$60</f>
+        <f t="shared" si="1"/>
         <v>2.381828524153734E-2</v>
       </c>
       <c r="H9" s="1">
-        <f>F9/$C9</f>
+        <f t="shared" si="2"/>
         <v>2.2269472236267816E-2</v>
       </c>
       <c r="I9" s="4">
         <v>683478</v>
       </c>
       <c r="J9" s="1">
-        <f>I9/$C9</f>
+        <f t="shared" si="3"/>
         <v>1.1304289377423388E-2</v>
       </c>
       <c r="K9" s="3">
@@ -1230,25 +1230,25 @@
         <v>1609261</v>
       </c>
       <c r="E10" s="1">
-        <f>D10/$D$60</f>
+        <f t="shared" si="0"/>
         <v>1.5884799022958033E-2</v>
       </c>
       <c r="F10">
         <v>1251369</v>
       </c>
       <c r="G10" s="2">
-        <f>F10/$F$60</f>
+        <f t="shared" si="1"/>
         <v>2.2136282354020036E-2</v>
       </c>
       <c r="H10" s="1">
-        <f>F10/$C10</f>
+        <f t="shared" si="2"/>
         <v>2.6764513055273938E-2</v>
       </c>
       <c r="I10" s="4">
         <v>357892</v>
       </c>
       <c r="J10" s="1">
-        <f>I10/$C10</f>
+        <f t="shared" si="3"/>
         <v>7.65466070070307E-3</v>
       </c>
       <c r="K10" s="3">
@@ -1275,25 +1275,25 @@
         <v>1231716</v>
       </c>
       <c r="E11" s="1">
-        <f>D11/$D$60</f>
+        <f t="shared" si="0"/>
         <v>1.2158103075487306E-2</v>
       </c>
       <c r="F11">
         <v>998587</v>
       </c>
       <c r="G11" s="2">
-        <f>F11/$F$60</f>
+        <f t="shared" si="1"/>
         <v>1.7664656697627804E-2</v>
       </c>
       <c r="H11" s="1">
-        <f>F11/$C11</f>
+        <f t="shared" si="2"/>
         <v>2.6385114331919601E-2</v>
       </c>
       <c r="I11" s="4">
         <v>233129</v>
       </c>
       <c r="J11" s="1">
-        <f>I11/$C11</f>
+        <f t="shared" si="3"/>
         <v>6.1598391718358887E-3</v>
       </c>
       <c r="K11" s="3">
@@ -1320,25 +1320,25 @@
         <v>670307</v>
       </c>
       <c r="E12" s="1">
-        <f>D12/$D$60</f>
+        <f t="shared" si="0"/>
         <v>6.6165102980075517E-3</v>
       </c>
       <c r="F12">
         <v>631298</v>
       </c>
       <c r="G12" s="2">
-        <f>F12/$F$60</f>
+        <f t="shared" si="1"/>
         <v>1.1167442039500852E-2</v>
       </c>
       <c r="H12" s="1">
-        <f>F12/$C12</f>
+        <f t="shared" si="2"/>
         <v>4.8963353788001405E-3</v>
       </c>
       <c r="I12" s="4">
         <v>43455</v>
       </c>
       <c r="J12" s="1">
-        <f>I12/$C12</f>
+        <f t="shared" si="3"/>
         <v>3.3703616023773262E-4</v>
       </c>
       <c r="K12" s="3">
@@ -1365,25 +1365,25 @@
         <v>721184</v>
       </c>
       <c r="E13" s="1">
-        <f>D13/$D$60</f>
+        <f t="shared" si="0"/>
         <v>7.1187103264001095E-3</v>
       </c>
       <c r="F13">
         <v>598135</v>
       </c>
       <c r="G13" s="2">
-        <f>F13/$F$60</f>
+        <f t="shared" si="1"/>
         <v>1.0580800104383099E-2</v>
       </c>
       <c r="H13" s="1">
-        <f>F13/$C13</f>
+        <f t="shared" si="2"/>
         <v>3.1091843601531621E-2</v>
       </c>
       <c r="I13" s="4">
         <v>123049</v>
       </c>
       <c r="J13" s="1">
-        <f>I13/$C13</f>
+        <f t="shared" si="3"/>
         <v>6.3962487788289668E-3</v>
       </c>
       <c r="K13" s="3">
@@ -1410,25 +1410,25 @@
         <v>974690</v>
       </c>
       <c r="E14" s="1">
-        <f>D14/$D$60</f>
+        <f t="shared" si="0"/>
         <v>9.6210339775132606E-3</v>
       </c>
       <c r="F14">
         <v>532427</v>
       </c>
       <c r="G14" s="2">
-        <f>F14/$F$60</f>
+        <f t="shared" si="1"/>
         <v>9.4184484391924578E-3</v>
       </c>
       <c r="H14" s="1">
-        <f>F14/$C14</f>
+        <f t="shared" si="2"/>
         <v>1.4106957373951892E-2</v>
       </c>
       <c r="I14" s="4">
         <v>27776</v>
       </c>
       <c r="J14" s="1">
-        <f>I14/$C14</f>
+        <f t="shared" si="3"/>
         <v>7.3594097973785652E-4</v>
       </c>
       <c r="K14" s="3">
@@ -1455,25 +1455,25 @@
         <v>515681</v>
       </c>
       <c r="E15" s="1">
-        <f>D15/$D$60</f>
+        <f t="shared" si="0"/>
         <v>5.0902178359868424E-3</v>
       </c>
       <c r="F15">
         <v>493133</v>
       </c>
       <c r="G15" s="2">
-        <f>F15/$F$60</f>
+        <f t="shared" si="1"/>
         <v>8.7233512465827133E-3</v>
       </c>
       <c r="H15" s="1">
-        <f>F15/$C15</f>
+        <f t="shared" si="2"/>
         <v>1.8028899961075025E-3</v>
       </c>
       <c r="I15" s="4">
         <v>22548</v>
       </c>
       <c r="J15" s="1">
-        <f>I15/$C15</f>
+        <f t="shared" si="3"/>
         <v>8.2435293586582053E-5</v>
       </c>
       <c r="K15" s="3">
@@ -1500,25 +1500,25 @@
         <v>375851</v>
       </c>
       <c r="E16" s="1">
-        <f>D16/$D$60</f>
+        <f t="shared" si="0"/>
         <v>3.7099747011689215E-3</v>
       </c>
       <c r="F16">
         <v>281577</v>
       </c>
       <c r="G16" s="2">
-        <f>F16/$F$60</f>
+        <f t="shared" si="1"/>
         <v>4.9809991908045508E-3</v>
       </c>
       <c r="H16" s="1">
-        <f>F16/$C16</f>
+        <f t="shared" si="2"/>
         <v>6.2301617250655967E-3</v>
       </c>
       <c r="I16" s="4">
         <v>94274</v>
       </c>
       <c r="J16" s="1">
-        <f>I16/$C16</f>
+        <f t="shared" si="3"/>
         <v>2.0859028488435989E-3</v>
       </c>
       <c r="K16" s="3">
@@ -1545,25 +1545,25 @@
         <v>296961</v>
       </c>
       <c r="E17" s="1">
-        <f>D17/$D$60</f>
+        <f t="shared" si="0"/>
         <v>2.9312621151302621E-3</v>
       </c>
       <c r="F17">
         <v>279195</v>
       </c>
       <c r="G17" s="2">
-        <f>F17/$F$60</f>
+        <f t="shared" si="1"/>
         <v>4.9388624393209551E-3</v>
       </c>
       <c r="H17" s="1">
-        <f>F17/$C17</f>
+        <f t="shared" si="2"/>
         <v>2.4090099275075206E-2</v>
       </c>
       <c r="I17" s="4">
         <v>17766</v>
       </c>
       <c r="J17" s="1">
-        <f>I17/$C17</f>
+        <f t="shared" si="3"/>
         <v>1.5329239553752256E-3</v>
       </c>
       <c r="K17" s="3">
@@ -1590,25 +1590,25 @@
         <v>338566</v>
       </c>
       <c r="E18" s="1">
-        <f>D18/$D$60</f>
+        <f t="shared" si="0"/>
         <v>3.3419394778142326E-3</v>
       </c>
       <c r="F18">
         <v>268386</v>
       </c>
       <c r="G18" s="2">
-        <f>F18/$F$60</f>
+        <f t="shared" si="1"/>
         <v>4.7476549889489206E-3</v>
       </c>
       <c r="H18" s="1">
-        <f>F18/$C18</f>
+        <f t="shared" si="2"/>
         <v>2.6320850447110033E-2</v>
       </c>
       <c r="I18" s="4">
         <v>68385</v>
       </c>
       <c r="J18" s="1">
-        <f>I18/$C18</f>
+        <f t="shared" si="3"/>
         <v>6.706576937044479E-3</v>
       </c>
       <c r="K18" s="3">
@@ -1635,25 +1635,25 @@
         <v>290947</v>
       </c>
       <c r="E19" s="1">
-        <f>D19/$D$60</f>
+        <f t="shared" si="0"/>
         <v>2.8718987294991745E-3</v>
       </c>
       <c r="F19">
         <v>244652</v>
       </c>
       <c r="G19" s="2">
-        <f>F19/$F$60</f>
+        <f t="shared" si="1"/>
         <v>4.3278087842001118E-3</v>
       </c>
       <c r="H19" s="1">
-        <f>F19/$C19</f>
+        <f t="shared" si="2"/>
         <v>2.3472194719091982E-2</v>
       </c>
       <c r="I19" s="4">
         <v>46295</v>
       </c>
       <c r="J19" s="1">
-        <f>I19/$C19</f>
+        <f t="shared" si="3"/>
         <v>4.4415956318377258E-3</v>
       </c>
       <c r="K19" s="3">
@@ -1680,25 +1680,25 @@
         <v>311662</v>
       </c>
       <c r="E20" s="1">
-        <f>D20/$D$60</f>
+        <f t="shared" si="0"/>
         <v>3.0763737101024303E-3</v>
       </c>
       <c r="F20">
         <v>243136</v>
       </c>
       <c r="G20" s="2">
-        <f>F20/$F$60</f>
+        <f t="shared" si="1"/>
         <v>4.3009912715010644E-3</v>
       </c>
       <c r="H20" s="1">
-        <f>F20/$C20</f>
+        <f t="shared" si="2"/>
         <v>2.5168446277826374E-2</v>
       </c>
       <c r="I20" s="4">
         <v>68526</v>
       </c>
       <c r="J20" s="1">
-        <f>I20/$C20</f>
+        <f t="shared" si="3"/>
         <v>7.0935318078537528E-3</v>
       </c>
       <c r="K20" s="3">
@@ -1725,25 +1725,25 @@
         <v>280066</v>
       </c>
       <c r="E21" s="1">
-        <f>D21/$D$60</f>
+        <f t="shared" si="0"/>
         <v>2.7644938410635472E-3</v>
       </c>
       <c r="F21">
         <v>235322</v>
       </c>
       <c r="G21" s="2">
-        <f>F21/$F$60</f>
+        <f t="shared" si="1"/>
         <v>4.1627643293966074E-3</v>
       </c>
       <c r="H21" s="1">
-        <f>F21/$C21</f>
+        <f t="shared" si="2"/>
         <v>2.1974264220445978E-2</v>
       </c>
       <c r="I21" s="4">
         <v>44744</v>
       </c>
       <c r="J21" s="1">
-        <f>I21/$C21</f>
+        <f t="shared" si="3"/>
         <v>4.1781749189605507E-3</v>
       </c>
       <c r="K21" s="3">
@@ -1770,25 +1770,25 @@
         <v>270026</v>
       </c>
       <c r="E22" s="1">
-        <f>D22/$D$60</f>
+        <f t="shared" si="0"/>
         <v>2.6653903505853096E-3</v>
       </c>
       <c r="F22">
         <v>187975</v>
       </c>
       <c r="G22" s="2">
-        <f>F22/$F$60</f>
+        <f t="shared" si="1"/>
         <v>3.3252123678123051E-3</v>
       </c>
       <c r="H22" s="1">
-        <f>F22/$C22</f>
+        <f t="shared" si="2"/>
         <v>3.2453109809859909E-2</v>
       </c>
       <c r="I22" s="4">
         <v>82051</v>
       </c>
       <c r="J22" s="1">
-        <f>I22/$C22</f>
+        <f t="shared" si="3"/>
         <v>1.4165767325489111E-2</v>
       </c>
       <c r="K22" s="3">
@@ -1815,25 +1815,25 @@
         <v>202345</v>
       </c>
       <c r="E23" s="1">
-        <f>D23/$D$60</f>
+        <f t="shared" si="0"/>
         <v>1.9973202968943159E-3</v>
       </c>
       <c r="F23">
         <v>186479</v>
       </c>
       <c r="G23" s="2">
-        <f>F23/$F$60</f>
+        <f t="shared" si="1"/>
         <v>3.2987486481567806E-3</v>
       </c>
       <c r="H23" s="1">
-        <f>F23/$C23</f>
+        <f t="shared" si="2"/>
         <v>2.0705165215846508E-2</v>
       </c>
       <c r="I23" s="4">
         <v>15866</v>
       </c>
       <c r="J23" s="1">
-        <f>I23/$C23</f>
+        <f t="shared" si="3"/>
         <v>1.7616361698347841E-3</v>
       </c>
       <c r="K23" s="3">
@@ -1860,22 +1860,22 @@
         <v>172912</v>
       </c>
       <c r="E24" s="1">
-        <f>D24/$D$60</f>
+        <f t="shared" si="0"/>
         <v>1.7067911101168298E-3</v>
       </c>
       <c r="F24">
         <v>172912</v>
       </c>
       <c r="G24" s="2">
-        <f>F24/$F$60</f>
+        <f t="shared" si="1"/>
         <v>3.0587531370829171E-3</v>
       </c>
       <c r="H24" s="1">
-        <f>F24/$C24</f>
+        <f t="shared" si="2"/>
         <v>0.10161831659108018</v>
       </c>
       <c r="J24" s="1">
-        <f>I24/$C24</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K24" s="3">
@@ -1899,25 +1899,25 @@
         <v>155050</v>
       </c>
       <c r="E25" s="1">
-        <f>D25/$D$60</f>
+        <f t="shared" si="0"/>
         <v>1.5304777090289537E-3</v>
       </c>
       <c r="F25">
         <v>155000</v>
       </c>
       <c r="G25" s="2">
-        <f>F25/$F$60</f>
+        <f t="shared" si="1"/>
         <v>2.7418960873036697E-3</v>
       </c>
       <c r="H25" s="1">
-        <f>F25/$C25</f>
+        <f t="shared" si="2"/>
         <v>2.6494173076689692E-2</v>
       </c>
       <c r="I25" s="4">
         <v>50</v>
       </c>
       <c r="J25" s="1">
-        <f>I25/$C25</f>
+        <f t="shared" si="3"/>
         <v>8.5465074440934495E-6</v>
       </c>
       <c r="K25" s="3">
@@ -1944,25 +1944,25 @@
         <v>199800</v>
       </c>
       <c r="E26" s="1">
-        <f>D26/$D$60</f>
+        <f t="shared" si="0"/>
         <v>1.9721989439792646E-3</v>
       </c>
       <c r="F26">
         <v>150500</v>
       </c>
       <c r="G26" s="2">
-        <f>F26/$F$60</f>
+        <f t="shared" si="1"/>
         <v>2.6622926525109824E-3</v>
       </c>
       <c r="H26" s="1">
-        <f>F26/$C26</f>
+        <f t="shared" si="2"/>
         <v>3.0479185450350724E-2</v>
       </c>
       <c r="I26" s="4">
         <v>49300</v>
       </c>
       <c r="J26" s="1">
-        <f>I26/$C26</f>
+        <f t="shared" si="3"/>
         <v>9.9842115794172136E-3</v>
       </c>
       <c r="K26" s="3">
@@ -1989,25 +1989,25 @@
         <v>163760</v>
       </c>
       <c r="E27" s="1">
-        <f>D27/$D$60</f>
+        <f t="shared" si="0"/>
         <v>1.6164529482785004E-3</v>
       </c>
       <c r="F27">
         <v>145557</v>
       </c>
       <c r="G27" s="2">
-        <f>F27/$F$60</f>
+        <f t="shared" si="1"/>
         <v>2.5748527018042595E-3</v>
       </c>
       <c r="H27" s="1">
-        <f>F27/$C27</f>
+        <f t="shared" si="2"/>
         <v>2.6270421992239994E-2</v>
       </c>
       <c r="I27" s="4">
         <v>18203</v>
       </c>
       <c r="J27" s="1">
-        <f>I27/$C27</f>
+        <f t="shared" si="3"/>
         <v>3.2853142859824306E-3</v>
       </c>
       <c r="K27" s="3">
@@ -2034,25 +2034,25 @@
         <v>143691</v>
       </c>
       <c r="E28" s="1">
-        <f>D28/$D$60</f>
+        <f t="shared" si="0"/>
         <v>1.4183545468434661E-3</v>
       </c>
       <c r="F28">
         <v>134205</v>
       </c>
       <c r="G28" s="2">
-        <f>F28/$F$60</f>
+        <f t="shared" si="1"/>
         <v>2.3740397703005743E-3</v>
       </c>
       <c r="H28" s="1">
-        <f>F28/$C28</f>
+        <f t="shared" si="2"/>
         <v>2.4581277567049715E-2</v>
       </c>
       <c r="I28" s="4">
         <v>9486</v>
       </c>
       <c r="J28" s="1">
-        <f>I28/$C28</f>
+        <f t="shared" si="3"/>
         <v>1.7374762415784328E-3</v>
       </c>
       <c r="K28" s="3">
@@ -2079,25 +2079,25 @@
         <v>124326</v>
       </c>
       <c r="E29" s="1">
-        <f>D29/$D$60</f>
+        <f t="shared" si="0"/>
         <v>1.2272052347806108E-3</v>
       </c>
       <c r="F29">
         <v>105301</v>
       </c>
       <c r="G29" s="2">
-        <f>F29/$F$60</f>
+        <f t="shared" si="1"/>
         <v>1.8627380638010563E-3</v>
       </c>
       <c r="H29" s="1">
-        <f>F29/$C29</f>
+        <f t="shared" si="2"/>
         <v>1.9423777798519233E-2</v>
       </c>
       <c r="I29" s="4">
         <v>19025</v>
       </c>
       <c r="J29" s="1">
-        <f>I29/$C29</f>
+        <f t="shared" si="3"/>
         <v>3.5093434308964624E-3</v>
       </c>
       <c r="K29" s="3">
@@ -2124,25 +2124,25 @@
         <v>95776</v>
       </c>
       <c r="E30" s="1">
-        <f>D30/$D$60</f>
+        <f t="shared" si="0"/>
         <v>9.4539202231510536E-4</v>
       </c>
       <c r="F30">
         <v>72604</v>
       </c>
       <c r="G30" s="2">
-        <f>F30/$F$60</f>
+        <f t="shared" si="1"/>
         <v>1.2843395065973912E-3</v>
       </c>
       <c r="H30" s="1">
-        <f>F30/$C30</f>
+        <f t="shared" si="2"/>
         <v>2.6670183312511409E-2</v>
       </c>
       <c r="I30" s="4">
         <v>23172</v>
       </c>
       <c r="J30" s="1">
-        <f>I30/$C30</f>
+        <f t="shared" si="3"/>
         <v>8.511948208328941E-3</v>
       </c>
       <c r="K30" s="3">
@@ -2169,25 +2169,25 @@
         <v>83928</v>
       </c>
       <c r="E31" s="1">
-        <f>D31/$D$60</f>
+        <f t="shared" si="0"/>
         <v>8.2844200685831685E-4</v>
       </c>
       <c r="F31">
         <v>58829</v>
       </c>
       <c r="G31" s="2">
-        <f>F31/$F$60</f>
+        <f t="shared" si="1"/>
         <v>1.0406645478708877E-3</v>
       </c>
       <c r="H31" s="1">
-        <f>F31/$C31</f>
+        <f t="shared" si="2"/>
         <v>1.4330124123443342E-2</v>
       </c>
       <c r="I31" s="4">
         <v>25099</v>
       </c>
       <c r="J31" s="1">
-        <f>I31/$C31</f>
+        <f t="shared" si="3"/>
         <v>6.1138517631492027E-3</v>
       </c>
       <c r="K31" s="3">
@@ -2214,25 +2214,25 @@
         <v>67123</v>
       </c>
       <c r="E32" s="1">
-        <f>D32/$D$60</f>
+        <f t="shared" si="0"/>
         <v>6.625621106942952E-4</v>
       </c>
       <c r="F32">
         <v>56771</v>
       </c>
       <c r="G32" s="2">
-        <f>F32/$F$60</f>
+        <f t="shared" si="1"/>
         <v>1.0042592436923653E-3</v>
       </c>
       <c r="H32" s="1">
-        <f>F32/$C32</f>
+        <f t="shared" si="2"/>
         <v>2.9697833916756192E-3</v>
       </c>
       <c r="I32" s="4">
         <v>10352</v>
       </c>
       <c r="J32" s="1">
-        <f>I32/$C32</f>
+        <f t="shared" si="3"/>
         <v>5.4152996548635765E-4</v>
       </c>
       <c r="K32" s="3">
@@ -2259,25 +2259,25 @@
         <v>76255</v>
       </c>
       <c r="E33" s="1">
-        <f>D33/$D$60</f>
+        <f t="shared" si="0"/>
         <v>7.5270285522091498E-4</v>
       </c>
       <c r="F33">
         <v>53008</v>
       </c>
       <c r="G33" s="2">
-        <f>F33/$F$60</f>
+        <f t="shared" si="1"/>
         <v>9.3769308255350274E-4</v>
       </c>
       <c r="H33" s="1">
-        <f>F33/$C33</f>
+        <f t="shared" si="2"/>
         <v>2.5497707476723624E-2</v>
       </c>
       <c r="I33" s="4">
         <v>23247</v>
       </c>
       <c r="J33" s="1">
-        <f>I33/$C33</f>
+        <f t="shared" si="3"/>
         <v>1.1182183929055881E-2</v>
       </c>
       <c r="K33" s="3">
@@ -2304,25 +2304,25 @@
         <v>48128</v>
       </c>
       <c r="E34" s="1">
-        <f>D34/$D$60</f>
+        <f t="shared" ref="E34:E65" si="4">D34/$D$60</f>
         <v>4.7506501889806827E-4</v>
       </c>
       <c r="F34">
         <v>45707</v>
       </c>
       <c r="G34" s="2">
-        <f>F34/$F$60</f>
+        <f t="shared" ref="G34:G65" si="5">F34/$F$60</f>
         <v>8.0854093201541174E-4</v>
       </c>
       <c r="H34" s="1">
-        <f>F34/$C34</f>
+        <f t="shared" ref="H34:H58" si="6">F34/$C34</f>
         <v>8.9725121974105794E-3</v>
       </c>
       <c r="I34" s="4">
         <v>2421</v>
       </c>
       <c r="J34" s="1">
-        <f>I34/$C34</f>
+        <f t="shared" ref="J34:J65" si="7">I34/$C34</f>
         <v>4.7525438182184382E-4</v>
       </c>
       <c r="K34" s="3">
@@ -2349,25 +2349,25 @@
         <v>42634</v>
       </c>
       <c r="E35" s="1">
-        <f>D35/$D$60</f>
+        <f t="shared" si="4"/>
         <v>4.2083448337143124E-4</v>
       </c>
       <c r="F35">
         <v>28978</v>
       </c>
       <c r="G35" s="2">
-        <f>F35/$F$60</f>
+        <f t="shared" si="5"/>
         <v>5.126107407605532E-4</v>
       </c>
       <c r="H35" s="1">
-        <f>F35/$C35</f>
+        <f t="shared" si="6"/>
         <v>4.1704294989742307E-3</v>
       </c>
       <c r="I35" s="4">
         <v>13656</v>
       </c>
       <c r="J35" s="1">
-        <f>I35/$C35</f>
+        <f t="shared" si="7"/>
         <v>1.9653318116499446E-3</v>
       </c>
       <c r="K35" s="3">
@@ -2394,25 +2394,25 @@
         <v>38594</v>
       </c>
       <c r="E36" s="1">
-        <f>D36/$D$60</f>
+        <f t="shared" si="4"/>
         <v>3.8095618640608474E-4</v>
       </c>
       <c r="F36">
         <v>28186</v>
       </c>
       <c r="G36" s="2">
-        <f>F36/$F$60</f>
+        <f t="shared" si="5"/>
         <v>4.9860053623704021E-4</v>
       </c>
       <c r="H36" s="1">
-        <f>F36/$C36</f>
+        <f t="shared" si="6"/>
         <v>2.1247773341002411E-2</v>
       </c>
       <c r="I36" s="4">
         <v>10408</v>
       </c>
       <c r="J36" s="1">
-        <f>I36/$C36</f>
+        <f t="shared" si="7"/>
         <v>7.8459811584883667E-3</v>
       </c>
       <c r="K36" s="3">
@@ -2439,25 +2439,25 @@
         <v>37045</v>
       </c>
       <c r="E37" s="1">
-        <f>D37/$D$60</f>
+        <f t="shared" si="4"/>
         <v>3.6566621561417344E-4</v>
       </c>
       <c r="F37">
         <v>24773</v>
       </c>
       <c r="G37" s="2">
-        <f>F37/$F$60</f>
+        <f t="shared" si="5"/>
         <v>4.3822575335983099E-4</v>
       </c>
       <c r="H37" s="1">
-        <f>F37/$C37</f>
+        <f t="shared" si="6"/>
         <v>4.8511520923224787E-3</v>
       </c>
       <c r="I37" s="4">
         <v>12272</v>
       </c>
       <c r="J37" s="1">
-        <f>I37/$C37</f>
+        <f t="shared" si="7"/>
         <v>2.4031541790248035E-3</v>
       </c>
       <c r="K37" s="3">
@@ -2484,25 +2484,25 @@
         <v>27759</v>
       </c>
       <c r="E38" s="1">
-        <f>D38/$D$60</f>
+        <f t="shared" si="4"/>
         <v>2.7400535778738941E-4</v>
       </c>
       <c r="F38">
         <v>23811</v>
       </c>
       <c r="G38" s="2">
-        <f>F38/$F$60</f>
+        <f t="shared" si="5"/>
         <v>4.2120830796637209E-4</v>
       </c>
       <c r="H38" s="1">
-        <f>F38/$C38</f>
+        <f t="shared" si="6"/>
         <v>5.3927286151393194E-2</v>
       </c>
       <c r="I38" s="4">
         <v>3948</v>
       </c>
       <c r="J38" s="1">
-        <f>I38/$C38</f>
+        <f t="shared" si="7"/>
         <v>8.9414525104237683E-3</v>
       </c>
       <c r="K38" s="3">
@@ -2529,25 +2529,25 @@
         <v>25168</v>
       </c>
       <c r="E39" s="1">
-        <f>D39/$D$60</f>
+        <f t="shared" si="4"/>
         <v>2.4842994505540605E-4</v>
       </c>
       <c r="F39">
         <v>19617</v>
       </c>
       <c r="G39" s="2">
-        <f>F39/$F$60</f>
+        <f t="shared" si="5"/>
         <v>3.4701790673958769E-4</v>
       </c>
       <c r="H39" s="1">
-        <f>F39/$C39</f>
+        <f t="shared" si="6"/>
         <v>2.2396417851829949E-2</v>
       </c>
       <c r="I39" s="4">
         <v>5551</v>
       </c>
       <c r="J39" s="1">
-        <f>I39/$C39</f>
+        <f t="shared" si="7"/>
         <v>6.3374886830559231E-3</v>
       </c>
       <c r="K39" s="3">
@@ -2574,25 +2574,25 @@
         <v>12428</v>
       </c>
       <c r="E40" s="1">
-        <f>D40/$D$60</f>
+        <f t="shared" si="4"/>
         <v>1.2267511749636787E-4</v>
       </c>
       <c r="F40">
         <v>10748</v>
       </c>
       <c r="G40" s="2">
-        <f>F40/$F$60</f>
+        <f t="shared" si="5"/>
         <v>1.9012838158928929E-4</v>
       </c>
       <c r="H40" s="1">
-        <f>F40/$C40</f>
+        <f t="shared" si="6"/>
         <v>1.716998734775774E-2</v>
       </c>
       <c r="I40" s="4">
         <v>1680</v>
       </c>
       <c r="J40" s="1">
-        <f>I40/$C40</f>
+        <f t="shared" si="7"/>
         <v>2.6838089639219394E-3</v>
       </c>
       <c r="K40" s="3">
@@ -2619,25 +2619,25 @@
         <v>15522</v>
       </c>
       <c r="E41" s="1">
-        <f>D41/$D$60</f>
+        <f t="shared" si="4"/>
         <v>1.5321557561784858E-4</v>
       </c>
       <c r="F41">
         <v>10702</v>
       </c>
       <c r="G41" s="2">
-        <f>F41/$F$60</f>
+        <f t="shared" si="5"/>
         <v>1.8931465758918628E-4</v>
       </c>
       <c r="H41" s="1">
-        <f>F41/$C41</f>
+        <f t="shared" si="6"/>
         <v>3.1361172161172159E-2</v>
       </c>
       <c r="I41" s="4">
         <v>4820</v>
       </c>
       <c r="J41" s="1">
-        <f>I41/$C41</f>
+        <f t="shared" si="7"/>
         <v>1.4124542124542125E-2</v>
       </c>
       <c r="K41" s="3">
@@ -2664,19 +2664,19 @@
         <v>24000000</v>
       </c>
       <c r="E42" s="1">
-        <f>D42/$D$60</f>
+        <f t="shared" si="4"/>
         <v>0.23690077405156332</v>
       </c>
       <c r="G42" s="2">
-        <f>F42/$F$60</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H42" s="1">
-        <f>F42/$C42</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J42" s="1">
-        <f>I42/$C42</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K42" s="3">
@@ -2697,19 +2697,19 @@
         <v>3950156</v>
       </c>
       <c r="E43" s="1">
-        <f>D43/$D$60</f>
+        <f t="shared" si="4"/>
         <v>3.8991458917684463E-2</v>
       </c>
       <c r="G43" s="2">
-        <f>F43/$F$60</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H43" s="1">
-        <f>F43/$C43</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J43" s="1">
-        <f>I43/$C43</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K43" s="3">
@@ -2730,19 +2730,19 @@
         <v>2136299</v>
       </c>
       <c r="E44" s="1">
-        <f>D44/$D$60</f>
+        <f t="shared" si="4"/>
         <v>2.1087120279399192E-2</v>
       </c>
       <c r="G44" s="2">
-        <f>F44/$F$60</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H44" s="1">
-        <f>F44/$C44</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J44" s="1">
-        <f>I44/$C44</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K44" s="3">
@@ -2763,19 +2763,19 @@
         <v>1000000</v>
       </c>
       <c r="E45" s="1">
-        <f>D45/$D$60</f>
+        <f t="shared" si="4"/>
         <v>9.8708655854818049E-3</v>
       </c>
       <c r="G45" s="2">
-        <f>F45/$F$60</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H45" s="1">
-        <f>F45/$C45</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J45" s="1">
-        <f>I45/$C45</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K45" s="3">
@@ -2796,19 +2796,19 @@
         <v>440618</v>
       </c>
       <c r="E46" s="1">
-        <f>D46/$D$60</f>
+        <f t="shared" si="4"/>
         <v>4.3492810525438217E-3</v>
       </c>
       <c r="G46" s="2">
-        <f>F46/$F$60</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H46" s="1">
-        <f>F46/$C46</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J46" s="1">
-        <f>I46/$C46</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K46" s="3">
@@ -2829,19 +2829,19 @@
         <v>437380</v>
       </c>
       <c r="E47" s="1">
-        <f>D47/$D$60</f>
+        <f t="shared" si="4"/>
         <v>4.3173191897780318E-3</v>
       </c>
       <c r="G47" s="2">
-        <f>F47/$F$60</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H47" s="1">
-        <f>F47/$C47</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J47" s="1">
-        <f>I47/$C47</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K47" s="3">
@@ -2862,19 +2862,19 @@
         <v>262081</v>
       </c>
       <c r="E48" s="1">
-        <f>D48/$D$60</f>
+        <f t="shared" si="4"/>
         <v>2.5869663235086569E-3</v>
       </c>
       <c r="G48" s="2">
-        <f>F48/$F$60</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H48" s="1">
-        <f>F48/$C48</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J48" s="1">
-        <f>I48/$C48</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K48" s="3">
@@ -2895,19 +2895,19 @@
         <v>248055</v>
       </c>
       <c r="E49" s="1">
-        <f>D49/$D$60</f>
+        <f t="shared" si="4"/>
         <v>2.4485175628066892E-3</v>
       </c>
       <c r="G49" s="2">
-        <f>F49/$F$60</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H49" s="1">
-        <f>F49/$C49</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J49" s="1">
-        <f>I49/$C49</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K49" s="3">
@@ -2928,19 +2928,19 @@
         <v>200081</v>
       </c>
       <c r="E50" s="1">
-        <f>D50/$D$60</f>
+        <f t="shared" si="4"/>
         <v>1.974972657208785E-3</v>
       </c>
       <c r="G50" s="2">
-        <f>F50/$F$60</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H50" s="1">
-        <f>F50/$C50</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J50" s="1">
-        <f>I50/$C50</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K50" s="3">
@@ -2961,19 +2961,19 @@
         <v>59154</v>
       </c>
       <c r="E51" s="1">
-        <f>D51/$D$60</f>
+        <f t="shared" si="4"/>
         <v>5.839011828435907E-4</v>
       </c>
       <c r="G51" s="2">
-        <f>F51/$F$60</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H51" s="1">
-        <f>F51/$C51</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J51" s="1">
-        <f>I51/$C51</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K51" s="3">
@@ -2994,19 +2994,19 @@
         <v>30861</v>
       </c>
       <c r="E52" s="1">
-        <f>D52/$D$60</f>
+        <f t="shared" si="4"/>
         <v>3.0462478283355398E-4</v>
       </c>
       <c r="G52" s="2">
-        <f>F52/$F$60</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H52" s="1">
-        <f>F52/$C52</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J52" s="1">
-        <f>I52/$C52</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K52" s="3">
@@ -3027,19 +3027,19 @@
         <v>24865</v>
       </c>
       <c r="E53" s="1">
-        <f>D53/$D$60</f>
+        <f t="shared" si="4"/>
         <v>2.4543907278300507E-4</v>
       </c>
       <c r="G53" s="2">
-        <f>F53/$F$60</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H53" s="1">
-        <f>F53/$C53</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J53" s="1">
-        <f>I53/$C53</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K53" s="3">
@@ -3060,19 +3060,19 @@
         <v>6420</v>
       </c>
       <c r="E54" s="1">
-        <f>D54/$D$60</f>
+        <f t="shared" si="4"/>
         <v>6.337095705879319E-5</v>
       </c>
       <c r="G54" s="2">
-        <f>F54/$F$60</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H54" s="1">
-        <f>F54/$C54</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J54" s="1">
-        <f>I54/$C54</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K54" s="3">
@@ -3093,19 +3093,19 @@
         <v>3800</v>
       </c>
       <c r="E55" s="1">
-        <f>D55/$D$60</f>
+        <f t="shared" si="4"/>
         <v>3.7509289224830856E-5</v>
       </c>
       <c r="G55" s="2">
-        <f>F55/$F$60</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H55" s="1">
-        <f>F55/$C55</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J55" s="1">
-        <f>I55/$C55</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K55" s="3">
@@ -3126,19 +3126,19 @@
         <v>2982</v>
       </c>
       <c r="E56" s="1">
-        <f>D56/$D$60</f>
+        <f t="shared" si="4"/>
         <v>2.943492117590674E-5</v>
       </c>
       <c r="G56" s="2">
-        <f>F56/$F$60</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H56" s="1">
-        <f>F56/$C56</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J56" s="1">
-        <f>I56/$C56</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K56" s="3">
@@ -3159,19 +3159,19 @@
         <v>2500</v>
       </c>
       <c r="E57" s="1">
-        <f>D57/$D$60</f>
+        <f t="shared" si="4"/>
         <v>2.4677163963704513E-5</v>
       </c>
       <c r="G57" s="2">
-        <f>F57/$F$60</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H57" s="1">
-        <f>F57/$C57</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J57" s="1">
-        <f>I57/$C57</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K57" s="3">
@@ -3192,19 +3192,19 @@
         <v>30</v>
       </c>
       <c r="E58" s="1">
-        <f>D58/$D$60</f>
+        <f t="shared" si="4"/>
         <v>2.9612596756445415E-7</v>
       </c>
       <c r="G58" s="2">
-        <f>F58/$F$60</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H58" s="1">
-        <f>F58/$C58</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J58" s="1">
-        <f>I58/$C58</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K58" s="3">
